--- a/portfolio_data.xlsx
+++ b/portfolio_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Stock</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>VYMI</t>
+  </si>
+  <si>
+    <t>VICI</t>
   </si>
 </sst>
 </file>
@@ -406,16 +409,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>186.6</v>
+        <v>181.6</v>
       </c>
       <c r="C2" s="4">
-        <v>19.12</v>
+        <v>19.05</v>
       </c>
       <c r="D2" s="5">
-        <v>27.8</v>
+        <v>28.05</v>
       </c>
       <c r="E2" s="5">
-        <v>4.04</v>
+        <v>4.0</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -424,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>68.33</v>
+        <v>69.27</v>
       </c>
       <c r="C3" s="4">
-        <v>42.39</v>
+        <v>42.4</v>
       </c>
       <c r="D3" s="5">
-        <v>42.28</v>
+        <v>42.35</v>
       </c>
       <c r="E3" s="5">
-        <v>4.72</v>
+        <v>4.67</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -442,16 +445,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>209.42</v>
+        <v>212.84</v>
       </c>
       <c r="C4" s="4">
-        <v>28.43</v>
+        <v>28.4</v>
       </c>
       <c r="D4" s="5">
-        <v>25.78</v>
+        <v>26.54</v>
       </c>
       <c r="E4" s="5">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -460,16 +463,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>60.0</v>
+        <v>64.72</v>
       </c>
       <c r="C5" s="4">
-        <v>57.12</v>
+        <v>56.98</v>
       </c>
       <c r="D5" s="5">
-        <v>56.6</v>
+        <v>55.9</v>
       </c>
       <c r="E5" s="5">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -478,16 +481,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>62.92</v>
+        <v>64.63</v>
       </c>
       <c r="C6" s="4">
-        <v>26.51</v>
+        <v>26.42</v>
       </c>
       <c r="D6" s="5">
-        <v>22.31</v>
+        <v>23.38</v>
       </c>
       <c r="E6" s="5">
-        <v>7.36</v>
+        <v>7.35</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -496,16 +499,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>69.7</v>
+        <v>73.84</v>
       </c>
       <c r="C7" s="4">
-        <v>59.43</v>
+        <v>59.24</v>
       </c>
       <c r="D7" s="5">
-        <v>55.75</v>
+        <v>56.05</v>
       </c>
       <c r="E7" s="5">
-        <v>11.0</v>
+        <v>11.38</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -514,16 +517,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>38.75</v>
+        <v>40.6</v>
       </c>
       <c r="C8" s="4">
-        <v>56.91</v>
+        <v>56.71</v>
       </c>
       <c r="D8" s="5">
-        <v>51.63</v>
+        <v>52.7</v>
       </c>
       <c r="E8" s="5">
-        <v>13.0</v>
+        <v>14.47</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -532,16 +535,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>40.0</v>
+        <v>39.99</v>
       </c>
       <c r="C9" s="4">
         <v>31.64</v>
       </c>
       <c r="D9" s="5">
-        <v>29.83</v>
+        <v>29.29</v>
       </c>
       <c r="E9" s="5">
-        <v>6.49</v>
+        <v>6.54</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -550,16 +553,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>4.16</v>
+        <v>4.39</v>
       </c>
       <c r="C10" s="1">
-        <v>514.0</v>
+        <v>515.39</v>
       </c>
       <c r="D10" s="2">
-        <v>519.0</v>
+        <v>550.78</v>
       </c>
       <c r="E10" s="2">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -588,16 +591,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>8.43</v>
+        <v>8.51</v>
       </c>
       <c r="C11" s="1">
-        <v>177.53</v>
+        <v>177.57</v>
       </c>
       <c r="D11" s="2">
-        <v>184.67</v>
+        <v>189.89</v>
       </c>
       <c r="E11" s="2">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -626,16 +629,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>28.0</v>
+        <v>28.28</v>
       </c>
       <c r="C12" s="1">
-        <v>78.02</v>
+        <v>78.06</v>
       </c>
       <c r="D12" s="2">
-        <v>80.34</v>
+        <v>81.19</v>
       </c>
       <c r="E12" s="2">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
@@ -643,16 +646,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>7.75</v>
+        <v>7.76</v>
       </c>
       <c r="C13" s="1">
         <v>155.56</v>
       </c>
       <c r="D13" s="2">
-        <v>154.4</v>
+        <v>155.51</v>
       </c>
       <c r="E13" s="2">
-        <v>3.19</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="14">
@@ -660,24 +663,34 @@
         <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>29.54</v>
+        <v>30.18</v>
       </c>
       <c r="C14" s="1">
-        <v>70.41</v>
+        <v>70.6</v>
       </c>
       <c r="D14" s="2">
-        <v>76.72</v>
+        <v>80.0</v>
       </c>
       <c r="E14" s="2">
         <v>5.49</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>17.62</v>
+      </c>
+      <c r="C15" s="1">
+        <v>32.08</v>
+      </c>
+      <c r="D15" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5.45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6"/>

--- a/portfolio_data.xlsx
+++ b/portfolio_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Stock</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>VICI</t>
+  </si>
+  <si>
+    <t>DGRO</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="7">
-        <v>71.09</v>
+        <v>84.98</v>
       </c>
       <c r="C3" s="7">
         <v>42.4</v>
@@ -646,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="7">
-        <v>224.95</v>
+        <v>244.08</v>
       </c>
       <c r="C4" s="7">
         <v>28.4</v>
@@ -684,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="7">
-        <v>68.9</v>
+        <v>74.15</v>
       </c>
       <c r="C5" s="7">
         <v>56.98</v>
@@ -722,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="7">
-        <v>79.55</v>
+        <v>89.97</v>
       </c>
       <c r="C6" s="7">
         <v>26.42</v>
@@ -760,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="7">
-        <v>80.58</v>
+        <v>86.14</v>
       </c>
       <c r="C7" s="7">
         <v>59.24</v>
@@ -793,7 +796,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -831,7 +834,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -869,12 +872,12 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="22.5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>4.88</v>
+        <v>5.01</v>
       </c>
       <c r="C10" s="2">
         <v>515.39</v>
@@ -907,7 +910,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -945,12 +948,12 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="22.5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>30.66</v>
+        <v>31.36</v>
       </c>
       <c r="C12" s="2">
         <v>78.06</v>
@@ -983,7 +986,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="22.5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1021,12 +1024,12 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="22.5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>33.39</v>
+        <v>34.28</v>
       </c>
       <c r="C14" s="2">
         <v>70.6</v>
@@ -1059,12 +1062,12 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="22.5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>32.76</v>
+        <v>36.59</v>
       </c>
       <c r="C15" s="2">
         <v>32.08</v>
@@ -1097,12 +1100,22 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="22.5">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7.39</v>
+      </c>
+      <c r="C16" s="2">
+        <v>66.63</v>
+      </c>
+      <c r="D16" s="3">
+        <v>66.4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.24</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1125,7 +1138,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="22.5">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1153,7 +1166,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="22.5">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1181,7 +1194,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="22.5">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1209,7 +1222,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="22.5">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1237,7 +1250,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="22.5">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1265,7 +1278,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="22.5">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1293,7 +1306,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="22.5">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1321,7 +1334,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="22.5">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1349,7 +1362,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="22.5">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1377,7 +1390,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="22.5">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1405,7 +1418,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="22.5">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1433,7 +1446,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="22.5">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1461,7 +1474,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="22.5">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1489,7 +1502,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="22.5">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1517,7 +1530,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="22.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1545,7 +1558,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="22.5">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>

--- a/portfolio_data.xlsx
+++ b/portfolio_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Stock</t>
   </si>
@@ -52,7 +52,7 @@
     <t>JEPQ</t>
   </si>
   <si>
-    <t>BP</t>
+    <t>ARCC</t>
   </si>
   <si>
     <t>VOO</t>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>DGRO</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>XOM</t>
   </si>
 </sst>
 </file>
@@ -573,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="7">
-        <v>183.42</v>
+        <v>173.12</v>
       </c>
       <c r="C2" s="7">
         <v>19.05</v>
@@ -611,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="7">
-        <v>84.98</v>
+        <v>88.33</v>
       </c>
       <c r="C3" s="7">
         <v>42.4</v>
@@ -649,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="7">
-        <v>244.08</v>
+        <v>251.91</v>
       </c>
       <c r="C4" s="7">
         <v>28.4</v>
@@ -725,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="7">
-        <v>89.97</v>
+        <v>94.89</v>
       </c>
       <c r="C6" s="7">
         <v>26.42</v>
@@ -763,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="7">
-        <v>86.14</v>
+        <v>87.75</v>
       </c>
       <c r="C7" s="7">
         <v>59.24</v>
@@ -796,12 +802,12 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7">
-        <v>46.35</v>
+        <v>46.72</v>
       </c>
       <c r="C8" s="7">
         <v>56.71</v>
@@ -834,21 +840,21 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="7">
-        <v>41.62</v>
+        <v>33.82</v>
       </c>
       <c r="C9" s="7">
-        <v>31.64</v>
+        <v>22.05</v>
       </c>
       <c r="D9" s="8">
-        <v>29.29</v>
+        <v>21.29</v>
       </c>
       <c r="E9" s="8">
-        <v>6.54</v>
+        <v>9.1</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
@@ -872,12 +878,12 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>5.01</v>
+        <v>5.21</v>
       </c>
       <c r="C10" s="2">
         <v>515.39</v>
@@ -910,7 +916,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -948,12 +954,12 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>31.36</v>
+        <v>32.08</v>
       </c>
       <c r="C12" s="2">
         <v>78.06</v>
@@ -986,12 +992,12 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="23.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>7.82</v>
+        <v>7.88</v>
       </c>
       <c r="C13" s="2">
         <v>155.56</v>
@@ -1024,12 +1030,12 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="23.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>34.28</v>
+        <v>43.67</v>
       </c>
       <c r="C14" s="2">
         <v>70.6</v>
@@ -1062,12 +1068,12 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="23.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>36.59</v>
+        <v>40.39</v>
       </c>
       <c r="C15" s="2">
         <v>32.08</v>
@@ -1100,12 +1106,12 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="23.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>7.39</v>
+        <v>8.86</v>
       </c>
       <c r="C16" s="2">
         <v>66.63</v>
@@ -1138,12 +1144,22 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="22.5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="23.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>66.16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>64.45</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6.23</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1166,12 +1182,22 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="22.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="23.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.42</v>
+      </c>
+      <c r="C18" s="2">
+        <v>108.95</v>
+      </c>
+      <c r="D18" s="3">
+        <v>114.57</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3.43</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1194,7 +1220,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="23.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
